--- a/UC-Serafe/EWR-Dataset-fiction/v0.1/EWR_ResidencesPrincipales.xlsx
+++ b/UC-Serafe/EWR-Dataset-fiction/v0.1/EWR_ResidencesPrincipales.xlsx
@@ -1,24 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hessoit-my.sharepoint.com/personal/fabian_cretton_hes-so_ch/Documents/Fabian/BK 2024/UC Serafe/EWR-Dataset-fiction/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="64" documentId="11_AD4DB114E441178AC67DF4D46695F050693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{98ED7135-7018-48EF-B502-4C0AEE3E8F71}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_AD4DB114E441178AC67DF4D46695F050693EDF18" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C425AFD-CFA5-4DEC-8BAD-FD0EBD03AA50}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="14016" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -134,7 +145,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -179,13 +190,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,12 +480,12 @@
   <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.77734375" customWidth="1"/>
     <col min="2" max="2" width="15.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.21875" customWidth="1"/>
@@ -1092,7 +1103,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
-        <v>9876543210</v>
+        <v>9876543211</v>
       </c>
       <c r="B22" s="2">
         <v>7560605260238</v>
@@ -1121,7 +1132,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
-        <v>8765432109</v>
+        <v>8765432108</v>
       </c>
       <c r="B23" s="2">
         <v>7562629102143</v>
@@ -1150,7 +1161,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
-        <v>7654321098</v>
+        <v>7654321095</v>
       </c>
       <c r="B24" s="2">
         <v>7562966486647</v>
@@ -1179,7 +1190,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
-        <v>6543210987</v>
+        <v>6543210984</v>
       </c>
       <c r="B25" s="2">
         <v>7569629683115</v>
